--- a/data/trans_orig/P44C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Habitat-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4032</v>
+        <v>4777</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0626624488193654</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2652552176910102</v>
+        <v>0.3142664450541321</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4836</v>
+        <v>4848</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03023071421623926</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.153486740940407</v>
+        <v>0.1538505323135607</v>
       </c>
     </row>
     <row r="5">
@@ -806,19 +806,19 @@
         <v>3003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>924</v>
+        <v>886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7422</v>
+        <v>6983</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1975233735513413</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06077465617801742</v>
+        <v>0.05825417224130382</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4882561124530565</v>
+        <v>0.4594074598055175</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -827,19 +827,19 @@
         <v>7115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3001</v>
+        <v>3124</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11025</v>
+        <v>11236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4363244117550121</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1840388053171551</v>
+        <v>0.1916029812413723</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6760594479580989</v>
+        <v>0.6890226012828887</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -848,19 +848,19 @@
         <v>10118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5734</v>
+        <v>5189</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15875</v>
+        <v>16073</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.321117839453845</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1819713495884753</v>
+        <v>0.1646943245969968</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5038443087543284</v>
+        <v>0.5101204575803143</v>
       </c>
     </row>
     <row r="6">
@@ -877,19 +877,19 @@
         <v>9120</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4883</v>
+        <v>5115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12281</v>
+        <v>13098</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5999687168807643</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3212099301025901</v>
+        <v>0.3364605455376481</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8079365577346113</v>
+        <v>0.8616814330582283</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -898,19 +898,19 @@
         <v>6170</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2945</v>
+        <v>2882</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10328</v>
+        <v>10382</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3783443941787361</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.180593385024401</v>
+        <v>0.1767476880609116</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.633340336993072</v>
+        <v>0.6366821200747945</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -919,19 +919,19 @@
         <v>15290</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9301</v>
+        <v>9445</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20584</v>
+        <v>20430</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4852642750516657</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2951987425126608</v>
+        <v>0.2997796533265201</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6532801399082617</v>
+        <v>0.6484152220471171</v>
       </c>
     </row>
     <row r="7">
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6723</v>
+        <v>5489</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.139845460748529</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4422926037421377</v>
+        <v>0.3610978378045682</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -969,19 +969,19 @@
         <v>3022</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8012</v>
+        <v>7220</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1853311940662519</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06003260540949459</v>
+        <v>0.06066039252666262</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4913375450884884</v>
+        <v>0.4427656643612738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -990,19 +990,19 @@
         <v>5148</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1998</v>
+        <v>2026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10252</v>
+        <v>10589</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1633871712782501</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0634071018246662</v>
+        <v>0.06431663187662071</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3253673023233817</v>
+        <v>0.3360575363535119</v>
       </c>
     </row>
     <row r="8">
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10337</v>
+        <v>8841</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08890726376017127</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3779886684621457</v>
+        <v>0.3232888747030133</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5618</v>
+        <v>4825</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02988274006564444</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1502732743543885</v>
+        <v>0.1290478225145158</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12413</v>
+        <v>13515</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05481794071703826</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1917518611910807</v>
+        <v>0.2087800804402851</v>
       </c>
     </row>
     <row r="10">
@@ -1165,19 +1165,19 @@
         <v>6540</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2420</v>
+        <v>2283</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13452</v>
+        <v>13129</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.239159785664831</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08847850399860809</v>
+        <v>0.08349938552367782</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.491902279967491</v>
+        <v>0.4800992547842208</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1186,19 +1186,19 @@
         <v>12741</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7619</v>
+        <v>7235</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19353</v>
+        <v>19329</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3407862105721036</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2037797001585321</v>
+        <v>0.193524112290645</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5176563033492694</v>
+        <v>0.5170131568460903</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1207,19 +1207,19 @@
         <v>19281</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12093</v>
+        <v>12748</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27427</v>
+        <v>27804</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2978536269961412</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1868129317864292</v>
+        <v>0.1969361520512702</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4236964359285574</v>
+        <v>0.4295154335222008</v>
       </c>
     </row>
     <row r="11">
@@ -1236,19 +1236,19 @@
         <v>12971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7502</v>
+        <v>7285</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18365</v>
+        <v>19029</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4742940197596734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2743174617439189</v>
+        <v>0.2663824733299236</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.671549171339805</v>
+        <v>0.6958218927843276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1257,19 +1257,19 @@
         <v>16899</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10617</v>
+        <v>10970</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23080</v>
+        <v>23291</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4520086773199705</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2839825178495993</v>
+        <v>0.2934314115734356</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6173318610497428</v>
+        <v>0.6229961067078218</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1278,19 +1278,19 @@
         <v>29869</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21540</v>
+        <v>21857</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38100</v>
+        <v>38925</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.461423229959055</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3327479515432067</v>
+        <v>0.337655096609932</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5885779780364986</v>
+        <v>0.6013170448972662</v>
       </c>
     </row>
     <row r="12">
@@ -1307,19 +1307,19 @@
         <v>5405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1996</v>
+        <v>2095</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10960</v>
+        <v>10800</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1976389308153242</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07300271192922715</v>
+        <v>0.07661016325378685</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4007735114754713</v>
+        <v>0.3949199582917518</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1328,19 +1328,19 @@
         <v>6629</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3207</v>
+        <v>3170</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13196</v>
+        <v>12343</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1773223720422814</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08578342749102302</v>
+        <v>0.08478525875108349</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3529574954914628</v>
+        <v>0.3301533261534865</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1349,19 +1349,19 @@
         <v>12034</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6307</v>
+        <v>6388</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19028</v>
+        <v>18888</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1859052023277655</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09742851053991071</v>
+        <v>0.09868333518772654</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2939444640861579</v>
+        <v>0.2917901892949065</v>
       </c>
     </row>
     <row r="13">
@@ -1466,19 +1466,19 @@
         <v>4272</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1077</v>
+        <v>1112</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10453</v>
+        <v>10621</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1558921475851183</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03930357329159467</v>
+        <v>0.04056496008645647</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3813999992636609</v>
+        <v>0.3875451572949498</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1487,19 +1487,19 @@
         <v>4272</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10812</v>
+        <v>11881</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07625137377958981</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01929192517479348</v>
+        <v>0.01895035221509798</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1929727507133279</v>
+        <v>0.2120392092616099</v>
       </c>
     </row>
     <row r="15">
@@ -1516,19 +1516,19 @@
         <v>10540</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4967</v>
+        <v>5242</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17203</v>
+        <v>17512</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3682161298164115</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1735132850537777</v>
+        <v>0.1831267860103095</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.60100441714465</v>
+        <v>0.6118091962929911</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -1537,19 +1537,19 @@
         <v>7808</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3305</v>
+        <v>3900</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13081</v>
+        <v>13831</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2849122884035841</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.120578535515605</v>
+        <v>0.1423196321192807</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4773175249448265</v>
+        <v>0.5046793322292212</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -1558,19 +1558,19 @@
         <v>18348</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>11013</v>
+        <v>10771</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>27024</v>
+        <v>26588</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3274698032871877</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1965478314546418</v>
+        <v>0.1922378807376896</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.482320088493141</v>
+        <v>0.4745391881277523</v>
       </c>
     </row>
     <row r="16">
@@ -1587,19 +1587,19 @@
         <v>14910</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8533</v>
+        <v>8772</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21229</v>
+        <v>21254</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5208914767091845</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2980999289987262</v>
+        <v>0.3064517310674196</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7416411464224616</v>
+        <v>0.742506345050634</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>11537</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6306</v>
+        <v>6468</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17495</v>
+        <v>17320</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.420983777526451</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2300805920399896</v>
+        <v>0.2360231880083993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6383625918834992</v>
+        <v>0.6319926044748061</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1629,19 +1629,19 @@
         <v>26447</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18171</v>
+        <v>18382</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35026</v>
+        <v>34363</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4720237214575488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3243095351797376</v>
+        <v>0.3280813187321849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6251211130006451</v>
+        <v>0.6132903968062742</v>
       </c>
     </row>
     <row r="17">
@@ -1658,19 +1658,19 @@
         <v>3174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8346</v>
+        <v>8007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.110892393474404</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03368096770367206</v>
+        <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2915810483673337</v>
+        <v>0.2797183078872384</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1679,19 +1679,19 @@
         <v>3788</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>952</v>
+        <v>966</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9961</v>
+        <v>9471</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1382117864848467</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03474201112544791</v>
+        <v>0.0352402298871253</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3634599031175447</v>
+        <v>0.3455664490139655</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1700,19 +1700,19 @@
         <v>6962</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2806</v>
+        <v>2960</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14500</v>
+        <v>13456</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1242551014756737</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05008782194896254</v>
+        <v>0.05283097119527738</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2587868189454111</v>
+        <v>0.2401556523276654</v>
       </c>
     </row>
     <row r="18">
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8624</v>
+        <v>9744</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05027216331455549</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2133903964048963</v>
+        <v>0.2410985123142962</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4301</v>
+        <v>5181</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03301194073980723</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1485168136140516</v>
+        <v>0.1788790172600696</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10680</v>
+        <v>11185</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04306679906410021</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1539423253043928</v>
+        <v>0.1612212856354467</v>
       </c>
     </row>
     <row r="20">
@@ -1875,19 +1875,19 @@
         <v>8060</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3816</v>
+        <v>3764</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14019</v>
+        <v>14489</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1994220784990381</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09441762077351847</v>
+        <v>0.09313146981748519</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3468773670526932</v>
+        <v>0.3584842895528095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1896,19 +1896,19 @@
         <v>9013</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4081</v>
+        <v>4436</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14978</v>
+        <v>15384</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3111925302965149</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1409031955239507</v>
+        <v>0.1531788954300416</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5171717637582364</v>
+        <v>0.531177694412274</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -1917,19 +1917,19 @@
         <v>17073</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10422</v>
+        <v>10414</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25746</v>
+        <v>24804</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.246081199732909</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1502152215259612</v>
+        <v>0.1500989020264926</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3710921041893854</v>
+        <v>0.3575163580324434</v>
       </c>
     </row>
     <row r="21">
@@ -1946,19 +1946,19 @@
         <v>25656</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18041</v>
+        <v>18666</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31426</v>
+        <v>31746</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6347880768869283</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4463744373512771</v>
+        <v>0.4618444369871451</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7775568942953756</v>
+        <v>0.7854766940633563</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1967,19 +1967,19 @@
         <v>10939</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6013</v>
+        <v>5961</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17689</v>
+        <v>17241</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3777001001972228</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2076013278875997</v>
+        <v>0.2058169204973915</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6107800888502344</v>
+        <v>0.5953087740236493</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -1988,19 +1988,19 @@
         <v>36594</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27640</v>
+        <v>27647</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>45809</v>
+        <v>45183</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5274654448386042</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3983993742745117</v>
+        <v>0.3985007484517987</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6602742456247196</v>
+        <v>0.6512527710864663</v>
       </c>
     </row>
     <row r="22">
@@ -2017,19 +2017,19 @@
         <v>4669</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1192</v>
+        <v>1083</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10171</v>
+        <v>10091</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1155176812994781</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0294963578245722</v>
+        <v>0.02679420467200825</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2516568404664976</v>
+        <v>0.2496892872059782</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2038,19 +2038,19 @@
         <v>8054</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3153</v>
+        <v>3202</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14091</v>
+        <v>13632</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2780954287664551</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1088714909889886</v>
+        <v>0.1105672123816721</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.486525272497899</v>
+        <v>0.4706894271062617</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2059,19 +2059,19 @@
         <v>12723</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6840</v>
+        <v>6713</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21917</v>
+        <v>21587</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1833865563643866</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09859145882683559</v>
+        <v>0.0967561938010633</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.315908050377813</v>
+        <v>0.3111553973977993</v>
       </c>
     </row>
     <row r="23">
@@ -2163,19 +2163,19 @@
         <v>5416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15170</v>
+        <v>15407</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04853262916438378</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00869712258184952</v>
+        <v>0.00908429080356527</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1359440396314955</v>
+        <v>0.1380726294888392</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2184,19 +2184,19 @@
         <v>6346</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2194</v>
+        <v>2209</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14327</v>
+        <v>15225</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05765549173291993</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01993298021714471</v>
+        <v>0.02007254800606035</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1301774627071553</v>
+        <v>0.1383293118593171</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -2205,19 +2205,19 @@
         <v>11761</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5133</v>
+        <v>4910</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22234</v>
+        <v>21849</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05306266293323345</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02316043944353852</v>
+        <v>0.02215046036144153</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1003124197256138</v>
+        <v>0.09857389133095985</v>
       </c>
     </row>
     <row r="25">
@@ -2234,19 +2234,19 @@
         <v>28142</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18355</v>
+        <v>18535</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39034</v>
+        <v>38261</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2522005500286593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1644890067857555</v>
+        <v>0.166106817562154</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3498054162201948</v>
+        <v>0.3428772187556204</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -2255,19 +2255,19 @@
         <v>36677</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27356</v>
+        <v>27014</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46931</v>
+        <v>46762</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.333241493420016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2485554371718362</v>
+        <v>0.2454466848553366</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4264085285447496</v>
+        <v>0.4248774927575187</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -2276,19 +2276,19 @@
         <v>64819</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51019</v>
+        <v>51364</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78641</v>
+        <v>81623</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2924421088008406</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2301819912727269</v>
+        <v>0.23173649582895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3548010393167533</v>
+        <v>0.368257303365484</v>
       </c>
     </row>
     <row r="26">
@@ -2305,19 +2305,19 @@
         <v>62656</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50448</v>
+        <v>50553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72635</v>
+        <v>72904</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5614961472657999</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4520933499573943</v>
+        <v>0.4530339891005794</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6509236766751187</v>
+        <v>0.6533392638087999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -2326,19 +2326,19 @@
         <v>45545</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34712</v>
+        <v>35647</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>56207</v>
+        <v>57392</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4138148096110622</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3153884641516315</v>
+        <v>0.3238881036954412</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5106870679515352</v>
+        <v>0.5214578864905217</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -2347,19 +2347,19 @@
         <v>108201</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>91941</v>
+        <v>91031</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>122912</v>
+        <v>122770</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4881637429268184</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4148068757289149</v>
+        <v>0.4106998187555115</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5545368045483098</v>
+        <v>0.5538979737137327</v>
       </c>
     </row>
     <row r="27">
@@ -2376,19 +2376,19 @@
         <v>15373</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9034</v>
+        <v>8814</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>23613</v>
+        <v>23308</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.137770673541157</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08096226702208542</v>
+        <v>0.07898652986284863</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2116121011473911</v>
+        <v>0.2088810888463118</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>19</v>
@@ -2397,19 +2397,19 @@
         <v>21494</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13747</v>
+        <v>13660</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31488</v>
+        <v>30324</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1952882052360018</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1249041314448983</v>
+        <v>0.1241087210604253</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2860982355008986</v>
+        <v>0.275518614715637</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>33</v>
@@ -2418,19 +2418,19 @@
         <v>36867</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>26703</v>
+        <v>26121</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>50530</v>
+        <v>49884</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1663314853391075</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1204725872855083</v>
+        <v>0.1178509105383218</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2279733334521715</v>
+        <v>0.2250580971153032</v>
       </c>
     </row>
     <row r="28">
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5475</v>
+        <v>5544</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04557142038994424</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2215936114821805</v>
+        <v>0.2244019739596153</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5413</v>
+        <v>5840</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01996025688939433</v>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09595187913400623</v>
+        <v>0.1035347227861807</v>
       </c>
     </row>
     <row r="5">
@@ -2825,19 +2825,19 @@
         <v>8371</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4242</v>
+        <v>4093</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13973</v>
+        <v>14505</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2640400226359266</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1338143401692716</v>
+        <v>0.1291110298265251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4407696312955053</v>
+        <v>0.4575473744842823</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -2846,19 +2846,19 @@
         <v>9311</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4557</v>
+        <v>4515</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15360</v>
+        <v>14437</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3768650676476255</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1844464403822505</v>
+        <v>0.1827555009716983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6216682053201253</v>
+        <v>0.5843294515580367</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -2867,19 +2867,19 @@
         <v>17682</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11397</v>
+        <v>10530</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25537</v>
+        <v>25079</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3134573298587648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2020395702516941</v>
+        <v>0.1866782819682581</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4527171973300912</v>
+        <v>0.4445910378895263</v>
       </c>
     </row>
     <row r="6">
@@ -2896,19 +2896,19 @@
         <v>15940</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10263</v>
+        <v>9926</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21846</v>
+        <v>22159</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5027977869856175</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3237210891113415</v>
+        <v>0.3131045546934555</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.689092176810944</v>
+        <v>0.6989759735519994</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -2917,19 +2917,19 @@
         <v>14270</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8512</v>
+        <v>9142</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19063</v>
+        <v>19433</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5775635119624303</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3445074714385999</v>
+        <v>0.370008768703106</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7715487538169014</v>
+        <v>0.7865453050803723</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -2938,19 +2938,19 @@
         <v>30210</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22585</v>
+        <v>22715</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37491</v>
+        <v>37526</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5355451331137248</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4003764124857316</v>
+        <v>0.4026772086433773</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6646222751721418</v>
+        <v>0.6652573048656105</v>
       </c>
     </row>
     <row r="7">
@@ -2967,19 +2967,19 @@
         <v>7392</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3190</v>
+        <v>3219</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13223</v>
+        <v>12840</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2331621903784559</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1006198570068262</v>
+        <v>0.1015238158369572</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4171124603346862</v>
+        <v>0.4050230971819286</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>7392</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3209</v>
+        <v>3186</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13947</v>
+        <v>14393</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1310372801381161</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05688075644755029</v>
+        <v>0.05647230814567022</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.247241611533256</v>
+        <v>0.2551466724228232</v>
       </c>
     </row>
     <row r="8">
@@ -3105,19 +3105,19 @@
         <v>2882</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6971</v>
+        <v>7729</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07151319733326041</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02046701441543492</v>
+        <v>0.02048826720670052</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1729857061266894</v>
+        <v>0.1917835591204101</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5821</v>
+        <v>5941</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03423068631418719</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1728621143164777</v>
+        <v>0.1764097511479561</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3147,19 +3147,19 @@
         <v>4035</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1144</v>
+        <v>1120</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10268</v>
+        <v>10526</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05454139857874858</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01546100618182469</v>
+        <v>0.01514597033329054</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1388089014613864</v>
+        <v>0.1422962862985037</v>
       </c>
     </row>
     <row r="10">
@@ -3176,19 +3176,19 @@
         <v>4507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1502</v>
+        <v>1108</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10500</v>
+        <v>10657</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1118256442787168</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03727663159375987</v>
+        <v>0.02749576547053487</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2605570663048555</v>
+        <v>0.2644305277679675</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3197,19 +3197,19 @@
         <v>5497</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10969</v>
+        <v>11210</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1632236440200892</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05923460924786143</v>
+        <v>0.05949301143867079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3257251564344861</v>
+        <v>0.3329017378437981</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3218,19 +3218,19 @@
         <v>10003</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4869</v>
+        <v>5061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17255</v>
+        <v>18192</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1352231162877443</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06582054052100615</v>
+        <v>0.06842025924211284</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2332622872189243</v>
+        <v>0.2459306697232229</v>
       </c>
     </row>
     <row r="11">
@@ -3247,19 +3247,19 @@
         <v>25817</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19067</v>
+        <v>19437</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31146</v>
+        <v>31698</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6406203774341075</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4731214070972409</v>
+        <v>0.4823190613071532</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7728576442516925</v>
+        <v>0.7865563754493375</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -3268,19 +3268,19 @@
         <v>24605</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18256</v>
+        <v>18327</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29473</v>
+        <v>29206</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7306606647212391</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5421255197164131</v>
+        <v>0.5442374974886441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8752147058329333</v>
+        <v>0.8672856545931213</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -3289,19 +3289,19 @@
         <v>50421</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42300</v>
+        <v>41226</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58445</v>
+        <v>58036</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6816086476408499</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5718201591830185</v>
+        <v>0.5573071664553245</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.790070565942029</v>
+        <v>0.784544817544653</v>
       </c>
     </row>
     <row r="12">
@@ -3318,19 +3318,19 @@
         <v>7094</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3073</v>
+        <v>3124</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13308</v>
+        <v>12449</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1760407809539153</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07624929460167994</v>
+        <v>0.07750973990250608</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3302160725571336</v>
+        <v>0.3089111239730494</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7487</v>
+        <v>7943</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07188500494448442</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2223417639581759</v>
+        <v>0.2358608518701235</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -3360,19 +3360,19 @@
         <v>9515</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5016</v>
+        <v>4218</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16903</v>
+        <v>15810</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1286268374926572</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0678132013053868</v>
+        <v>0.05701673278978216</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.228503063589043</v>
+        <v>0.2137285021188534</v>
       </c>
     </row>
     <row r="13">
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6598</v>
+        <v>6591</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06725344473260328</v>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2019336958581593</v>
+        <v>0.2017262848996862</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7607</v>
+        <v>6770</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04148016302893454</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1435963283914939</v>
+        <v>0.1277915805050434</v>
       </c>
     </row>
     <row r="15">
@@ -3527,19 +3527,19 @@
         <v>9329</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4699</v>
+        <v>4799</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15663</v>
+        <v>15394</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2855038221045991</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1438254248848368</v>
+        <v>0.146883491841152</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4793770808303557</v>
+        <v>0.4711291678567857</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -3548,19 +3548,19 @@
         <v>8172</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3557</v>
+        <v>3786</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13018</v>
+        <v>13622</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4025322549605665</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1752243017858659</v>
+        <v>0.1864865963096245</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6412090389910321</v>
+        <v>0.6709556046988122</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -3569,19 +3569,19 @@
         <v>17501</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>11114</v>
+        <v>11019</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>25528</v>
+        <v>24724</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3303521830967837</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2098019179417944</v>
+        <v>0.2079910043332362</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4818845477964683</v>
+        <v>0.4667097716134483</v>
       </c>
     </row>
     <row r="16">
@@ -3598,19 +3598,19 @@
         <v>17045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10570</v>
+        <v>10977</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22528</v>
+        <v>23003</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5216564569942711</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3235112287234474</v>
+        <v>0.3359637380331278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6894672080833011</v>
+        <v>0.704012166540949</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3619,19 +3619,19 @@
         <v>5623</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2064</v>
+        <v>2291</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10516</v>
+        <v>11237</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2769787474497266</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1016556940952277</v>
+        <v>0.1128330494115171</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5179702293764693</v>
+        <v>0.5534964167459755</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -3640,19 +3640,19 @@
         <v>22668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16143</v>
+        <v>15788</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29950</v>
+        <v>30622</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4278895494436922</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3047236919825678</v>
+        <v>0.2980145709487812</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5653536175924249</v>
+        <v>0.5780434035595723</v>
       </c>
     </row>
     <row r="17">
@@ -3669,19 +3669,19 @@
         <v>4103</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9191</v>
+        <v>9378</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1255862761685266</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03264784391795669</v>
+        <v>0.03241945409889983</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.281284914166932</v>
+        <v>0.2870143138128579</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3690,19 +3690,19 @@
         <v>6507</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3080</v>
+        <v>3070</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11341</v>
+        <v>11266</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3204889975897069</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1517057924692401</v>
+        <v>0.1511945410897247</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5586023295528182</v>
+        <v>0.5549068875220993</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -3711,19 +3711,19 @@
         <v>10610</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6250</v>
+        <v>5362</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17284</v>
+        <v>17588</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2002781044305896</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1179823663231037</v>
+        <v>0.1012229471721745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3262662762224026</v>
+        <v>0.3320071082398215</v>
       </c>
     </row>
     <row r="18">
@@ -3815,19 +3815,19 @@
         <v>6730</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2904</v>
+        <v>2679</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13687</v>
+        <v>13677</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1197143874581616</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05166408051818374</v>
+        <v>0.04764683686112425</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2434663651853661</v>
+        <v>0.243300431167112</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3836,19 +3836,19 @@
         <v>3428</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1056</v>
+        <v>1081</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8962</v>
+        <v>9262</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0937021939508464</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02886994394137177</v>
+        <v>0.02955384741685265</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2449536787410234</v>
+        <v>0.2531561478757864</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -3857,19 +3857,19 @@
         <v>10158</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4980</v>
+        <v>5239</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18197</v>
+        <v>18486</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1094593323184363</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05366664919775652</v>
+        <v>0.05645702134338355</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1960782207531743</v>
+        <v>0.1991958187274192</v>
       </c>
     </row>
     <row r="20">
@@ -3886,19 +3886,19 @@
         <v>7905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3937</v>
+        <v>4257</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13828</v>
+        <v>14573</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1406269341218197</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07003415850094144</v>
+        <v>0.07572699826493615</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2459796177624338</v>
+        <v>0.2592371918183461</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -3907,19 +3907,19 @@
         <v>10828</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5351</v>
+        <v>5400</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17217</v>
+        <v>17646</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2959594266677711</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1462448748801115</v>
+        <v>0.1475982009574907</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4705699122019934</v>
+        <v>0.482293097054378</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -3928,19 +3928,19 @@
         <v>18734</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11991</v>
+        <v>11365</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27344</v>
+        <v>27446</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.201865263584567</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1292120059523995</v>
+        <v>0.1224610525378843</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2946479776084626</v>
+        <v>0.2957421236461933</v>
       </c>
     </row>
     <row r="21">
@@ -3957,19 +3957,19 @@
         <v>29296</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21843</v>
+        <v>21538</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37418</v>
+        <v>36356</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5211245249629475</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3885628542172809</v>
+        <v>0.3831288562930116</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6656030474577569</v>
+        <v>0.6467144725428051</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -3978,19 +3978,19 @@
         <v>15534</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9763</v>
+        <v>9140</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22510</v>
+        <v>21717</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4245850621671163</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2668329194344527</v>
+        <v>0.2498233324401173</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.615249815292463</v>
+        <v>0.593560462038479</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>42</v>
@@ -3999,19 +3999,19 @@
         <v>44830</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>35362</v>
+        <v>35596</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>55166</v>
+        <v>55223</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4830647775659317</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3810388639204901</v>
+        <v>0.3835682133495553</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5944457751419617</v>
+        <v>0.5950587268553302</v>
       </c>
     </row>
     <row r="22">
@@ -4028,19 +4028,19 @@
         <v>12285</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6553</v>
+        <v>6565</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19128</v>
+        <v>19950</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2185341534570713</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1165593515652647</v>
+        <v>0.1167888487665756</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3402631487168128</v>
+        <v>0.354875133677284</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4049,19 +4049,19 @@
         <v>6796</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2774</v>
+        <v>2204</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13722</v>
+        <v>13622</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1857533172142661</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07583099571090381</v>
+        <v>0.06024244569185527</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3750418944239363</v>
+        <v>0.3723190605849639</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4070,19 +4070,19 @@
         <v>19081</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11726</v>
+        <v>11450</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28590</v>
+        <v>28487</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.205610626531065</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1263560294863031</v>
+        <v>0.1233847235112512</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3080674234790997</v>
+        <v>0.306956866232638</v>
       </c>
     </row>
     <row r="23">
@@ -4174,19 +4174,19 @@
         <v>11809</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6062</v>
+        <v>6305</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19985</v>
+        <v>20414</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07339907133207714</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03767963299035626</v>
+        <v>0.0391859889654327</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1242133762298719</v>
+        <v>0.1268781567038063</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -4195,19 +4195,19 @@
         <v>5707</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2241</v>
+        <v>2202</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12974</v>
+        <v>12766</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04950885043281895</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01944404713353578</v>
+        <v>0.01910509668309983</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1125572101176601</v>
+        <v>0.1107504990877602</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -4216,19 +4216,19 @@
         <v>17516</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10303</v>
+        <v>9904</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26847</v>
+        <v>27269</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06342728272150072</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03730929874020635</v>
+        <v>0.0358614660973038</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09721583692371838</v>
+        <v>0.09874443360684391</v>
       </c>
     </row>
     <row r="25">
@@ -4245,19 +4245,19 @@
         <v>30111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21353</v>
+        <v>21274</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40822</v>
+        <v>40424</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1871517308457072</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1327179792907449</v>
+        <v>0.1322254968880432</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2537241426913297</v>
+        <v>0.2512488557161139</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -4266,19 +4266,19 @@
         <v>33808</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23738</v>
+        <v>23994</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45691</v>
+        <v>44912</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2932936397310701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2059326223754747</v>
+        <v>0.2081522992770543</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.396379568390563</v>
+        <v>0.389626203211112</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -4287,19 +4287,19 @@
         <v>63919</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51040</v>
+        <v>49371</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79341</v>
+        <v>77973</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2314554098527425</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1848196810502798</v>
+        <v>0.1787736953951734</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2872986832042348</v>
+        <v>0.2823463998144587</v>
       </c>
     </row>
     <row r="26">
@@ -4316,19 +4316,19 @@
         <v>88097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75606</v>
+        <v>75717</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>100345</v>
+        <v>101807</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5475523999818972</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4699195300639163</v>
+        <v>0.4706083639099998</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6236802891500974</v>
+        <v>0.6327684070747694</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -4337,19 +4337,19 @@
         <v>60032</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48652</v>
+        <v>48532</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71333</v>
+        <v>72131</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5207934941262696</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4220688218310071</v>
+        <v>0.4210296193627632</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.618835638131655</v>
+        <v>0.6257565244165598</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>136</v>
@@ -4358,19 +4358,19 @@
         <v>148129</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>130914</v>
+        <v>131206</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>165356</v>
+        <v>165588</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5363832210208554</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.474049065490096</v>
+        <v>0.4751049013624439</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5987641194888786</v>
+        <v>0.5996036810597969</v>
       </c>
     </row>
     <row r="27">
@@ -4387,19 +4387,19 @@
         <v>30875</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21249</v>
+        <v>21994</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>42552</v>
+        <v>41661</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1918967978403185</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1320683274909481</v>
+        <v>0.1366999907113396</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2644772197643126</v>
+        <v>0.25893474820297</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -4408,19 +4408,19 @@
         <v>15723</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8914</v>
+        <v>8291</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>25226</v>
+        <v>25281</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1364040157098413</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07732725955817572</v>
+        <v>0.07192435521967006</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2188400442422603</v>
+        <v>0.2193227966917299</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>42</v>
@@ -4429,19 +4429,19 @@
         <v>46598</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>33668</v>
+        <v>34839</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>61170</v>
+        <v>62317</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1687340864049012</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1219128055596269</v>
+        <v>0.12615294885076</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2214993437043192</v>
+        <v>0.2256546509072154</v>
       </c>
     </row>
     <row r="28">
@@ -4773,19 +4773,19 @@
         <v>2227</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>554</v>
+        <v>764</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5786</v>
+        <v>5664</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02178768195207501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005420913734806331</v>
+        <v>0.007480266119332871</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0566214700116544</v>
+        <v>0.05542277309048626</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4797,16 +4797,16 @@
         <v>347</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3106</v>
+        <v>3533</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01112663007839136</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003288010561674667</v>
+        <v>0.003286683856363853</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02945734378104909</v>
+        <v>0.03351423202915622</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4815,19 +4815,19 @@
         <v>3400</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1441</v>
+        <v>1501</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7331</v>
+        <v>6849</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01637416779891149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006939656011785325</v>
+        <v>0.007227265780046004</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0353112714360417</v>
+        <v>0.03298532938820918</v>
       </c>
     </row>
     <row r="5">
@@ -4844,19 +4844,19 @@
         <v>16267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10496</v>
+        <v>10424</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23614</v>
+        <v>23527</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1591718019843514</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1027077217505043</v>
+        <v>0.1019991833735337</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2310640591022838</v>
+        <v>0.2302164518141994</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -4865,19 +4865,19 @@
         <v>32613</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26395</v>
+        <v>25309</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39365</v>
+        <v>39419</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3093385927788532</v>
+        <v>0.3093385927788531</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2503595689207767</v>
+        <v>0.2400557897152686</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3733849546615855</v>
+        <v>0.3738934443508968</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -4886,19 +4886,19 @@
         <v>48879</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40458</v>
+        <v>39752</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60343</v>
+        <v>59354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.235424132142116</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1948646929601233</v>
+        <v>0.1914636788310947</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2906357865403199</v>
+        <v>0.2858738266594161</v>
       </c>
     </row>
     <row r="6">
@@ -4915,19 +4915,19 @@
         <v>60264</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50773</v>
+        <v>50769</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68599</v>
+        <v>68316</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5896971719901062</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4968203850593063</v>
+        <v>0.4967846392459794</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6712514672231261</v>
+        <v>0.6684840667302626</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>95</v>
@@ -4936,19 +4936,19 @@
         <v>47207</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40224</v>
+        <v>40623</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54494</v>
+        <v>55156</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4477693617187544</v>
+        <v>0.4477693617187545</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3815343591267649</v>
+        <v>0.3853179975289825</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5168850177791655</v>
+        <v>0.5231641604215042</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>170</v>
@@ -4957,19 +4957,19 @@
         <v>107472</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95699</v>
+        <v>94788</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>118215</v>
+        <v>117940</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5176284663187593</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4609260076006194</v>
+        <v>0.4565395605600811</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5693731475262623</v>
+        <v>0.5680484807005556</v>
       </c>
     </row>
     <row r="7">
@@ -4986,19 +4986,19 @@
         <v>23438</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16464</v>
+        <v>16809</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32614</v>
+        <v>31608</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2293433440734675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1611009559145146</v>
+        <v>0.1644785357063454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3191311935477469</v>
+        <v>0.3092892925161558</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -5007,19 +5007,19 @@
         <v>24435</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18832</v>
+        <v>18414</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32069</v>
+        <v>30629</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2317654154240009</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1786234355948401</v>
+        <v>0.1746635673102763</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.304177794848357</v>
+        <v>0.2905190767103219</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -5028,19 +5028,19 @@
         <v>47872</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38088</v>
+        <v>38347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58495</v>
+        <v>59582</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2305732337402132</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.183449637835829</v>
+        <v>0.1846942092380304</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2817344244678587</v>
+        <v>0.2869720650570114</v>
       </c>
     </row>
     <row r="8">
@@ -5132,19 +5132,19 @@
         <v>6075</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2907</v>
+        <v>2081</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12932</v>
+        <v>12599</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04055143372910656</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01940225829159033</v>
+        <v>0.01388850802789995</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08631979431293839</v>
+        <v>0.08409645596479233</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -5153,19 +5153,19 @@
         <v>2424</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6061</v>
+        <v>6089</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01727515178000565</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003884142227527981</v>
+        <v>0.004055134060260641</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04318732881119044</v>
+        <v>0.04339006423512528</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -5174,19 +5174,19 @@
         <v>8499</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4171</v>
+        <v>4163</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15565</v>
+        <v>14748</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02929353588656795</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01437594202773355</v>
+        <v>0.01434705284902303</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05364512580702228</v>
+        <v>0.05082958169312755</v>
       </c>
     </row>
     <row r="10">
@@ -5203,19 +5203,19 @@
         <v>37638</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28626</v>
+        <v>27868</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48572</v>
+        <v>47894</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2512301038855563</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1910761906116582</v>
+        <v>0.1860217908182912</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3242175798082481</v>
+        <v>0.3196929811412659</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -5224,19 +5224,19 @@
         <v>30229</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23039</v>
+        <v>22934</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38552</v>
+        <v>38689</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2154119978759735</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1641759166129174</v>
+        <v>0.1634285405243667</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2747149732058712</v>
+        <v>0.2756934527463471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -5245,19 +5245,19 @@
         <v>67867</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55972</v>
+        <v>55927</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79786</v>
+        <v>80124</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2339061782151733</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.192909435282716</v>
+        <v>0.1927565821354119</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2749877202555308</v>
+        <v>0.2761509774189363</v>
       </c>
     </row>
     <row r="11">
@@ -5274,19 +5274,19 @@
         <v>72410</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60832</v>
+        <v>62327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>83471</v>
+        <v>83524</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4833365304113028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.406056087534358</v>
+        <v>0.4160343741402728</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5571692060821998</v>
+        <v>0.5575242064973079</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>132</v>
@@ -5295,19 +5295,19 @@
         <v>79265</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69802</v>
+        <v>69951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88056</v>
+        <v>87890</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.564835191126244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4974014270213916</v>
+        <v>0.4984670986062061</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6274775211833353</v>
+        <v>0.6262947193535141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>224</v>
@@ -5316,19 +5316,19 @@
         <v>151675</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>137736</v>
+        <v>135367</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>166411</v>
+        <v>165432</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5227544923795786</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4747134251151868</v>
+        <v>0.4665484607701115</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5735441916328311</v>
+        <v>0.5701715217707911</v>
       </c>
     </row>
     <row r="12">
@@ -5345,19 +5345,19 @@
         <v>33690</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24441</v>
+        <v>24170</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43493</v>
+        <v>42861</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2248819319740342</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1631414172952891</v>
+        <v>0.1613339898437252</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2903134719125794</v>
+        <v>0.2860987318691708</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>46</v>
@@ -5366,19 +5366,19 @@
         <v>28414</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21643</v>
+        <v>21696</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36454</v>
+        <v>36045</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2024776592177768</v>
+        <v>0.2024776592177769</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1542251644330719</v>
+        <v>0.1546006835605069</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2597675540678151</v>
+        <v>0.256852773419749</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>87</v>
@@ -5387,19 +5387,19 @@
         <v>62104</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>50138</v>
+        <v>51283</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>74893</v>
+        <v>76817</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2140457935186801</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1728031502929991</v>
+        <v>0.1767508157771177</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2581217069984906</v>
+        <v>0.2647551357190646</v>
       </c>
     </row>
     <row r="13">
@@ -5491,19 +5491,19 @@
         <v>3548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8104</v>
+        <v>8868</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03019207067672662</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008413965945989851</v>
+        <v>0.008387781834189827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06896695891104622</v>
+        <v>0.07547488851049998</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -5512,19 +5512,19 @@
         <v>5201</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2612</v>
+        <v>2548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9718</v>
+        <v>9879</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.06156836965136758</v>
+        <v>0.0615683696513676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03091620489925763</v>
+        <v>0.0301617357167002</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1150421984291743</v>
+        <v>0.1169390343118587</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -5533,19 +5533,19 @@
         <v>8749</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4612</v>
+        <v>4597</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14545</v>
+        <v>15310</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04331534459535245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02283209189266234</v>
+        <v>0.0227606562249819</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07201493255602463</v>
+        <v>0.07579929683016338</v>
       </c>
     </row>
     <row r="15">
@@ -5562,19 +5562,19 @@
         <v>31602</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>23666</v>
+        <v>22610</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>40721</v>
+        <v>41539</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2689552123506558</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.201412976607654</v>
+        <v>0.1924306712202302</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3465679283641283</v>
+        <v>0.3535300322614802</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>35</v>
@@ -5583,19 +5583,19 @@
         <v>20353</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15386</v>
+        <v>15289</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26388</v>
+        <v>26366</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.240927868107708</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1821368087604312</v>
+        <v>0.1809820262839105</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3123725041246252</v>
+        <v>0.3121101617488663</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>68</v>
@@ -5604,19 +5604,19 @@
         <v>51955</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>41614</v>
+        <v>40094</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>63061</v>
+        <v>63031</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2572326533576688</v>
+        <v>0.2572326533576689</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2060360907593576</v>
+        <v>0.1985078162250338</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3122198453728658</v>
+        <v>0.3120698827438538</v>
       </c>
     </row>
     <row r="16">
@@ -5633,19 +5633,19 @@
         <v>52394</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43364</v>
+        <v>43077</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63189</v>
+        <v>62869</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4459096607987405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3690586902788279</v>
+        <v>0.3666184483309624</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.537782740776107</v>
+        <v>0.5350561212689141</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -5654,19 +5654,19 @@
         <v>40935</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33490</v>
+        <v>33519</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48125</v>
+        <v>47979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4845731215718131</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3964350404904216</v>
+        <v>0.3967821249331749</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5696799857926089</v>
+        <v>0.5679509222091194</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -5675,19 +5675,19 @@
         <v>93329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>80360</v>
+        <v>82314</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>105419</v>
+        <v>107289</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4620808219282658</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3978710602752133</v>
+        <v>0.4075428827667992</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5219365560291757</v>
+        <v>0.5311953593622002</v>
       </c>
     </row>
     <row r="17">
@@ -5704,19 +5704,19 @@
         <v>29956</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22212</v>
+        <v>20432</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39069</v>
+        <v>39297</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.254943056173877</v>
+        <v>0.2549430561738769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1890380727595747</v>
+        <v>0.1738936481147546</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3325037123628323</v>
+        <v>0.3344439329190943</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -5725,19 +5725,19 @@
         <v>17988</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11968</v>
+        <v>12696</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24422</v>
+        <v>24790</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2129306406691114</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1416745944410103</v>
+        <v>0.1502874470605476</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2890938175352131</v>
+        <v>0.2934578648537587</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -5746,19 +5746,19 @@
         <v>47943</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37605</v>
+        <v>37222</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59052</v>
+        <v>58816</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2373711801187129</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1861856837636336</v>
+        <v>0.184288502571162</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2923703307478309</v>
+        <v>0.2912046049154967</v>
       </c>
     </row>
     <row r="18">
@@ -5850,19 +5850,19 @@
         <v>7780</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4089</v>
+        <v>3707</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13760</v>
+        <v>13998</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04318716736558406</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02269648513803273</v>
+        <v>0.02057971602641636</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07638754879157814</v>
+        <v>0.07770410907159973</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -5871,19 +5871,19 @@
         <v>8525</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4764</v>
+        <v>4947</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14166</v>
+        <v>13781</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04775247744485282</v>
+        <v>0.04775247744485281</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02668158904554407</v>
+        <v>0.02770886085885996</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07934532825070995</v>
+        <v>0.07718953172001462</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -5892,19 +5892,19 @@
         <v>16305</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10613</v>
+        <v>10476</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23935</v>
+        <v>23501</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04545960626224091</v>
+        <v>0.04545960626224092</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02958862341147238</v>
+        <v>0.02920770077525455</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06673104621929239</v>
+        <v>0.06552132695674184</v>
       </c>
     </row>
     <row r="20">
@@ -5921,19 +5921,19 @@
         <v>49929</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39440</v>
+        <v>39252</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59566</v>
+        <v>61185</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2771693871206634</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2189395027807541</v>
+        <v>0.2178994712346636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3306650201662731</v>
+        <v>0.3396553954093129</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>87</v>
@@ -5942,19 +5942,19 @@
         <v>50483</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41382</v>
+        <v>42173</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61145</v>
+        <v>59784</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2827626618597589</v>
+        <v>0.2827626618597588</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2317867296549282</v>
+        <v>0.2362191750333532</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.342483849648994</v>
+        <v>0.3348591108352938</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>154</v>
@@ -5963,19 +5963,19 @@
         <v>100412</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>86776</v>
+        <v>88394</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>114281</v>
+        <v>116596</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2799535079922175</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2419367168546015</v>
+        <v>0.2464478440477382</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3186203155108034</v>
+        <v>0.3250770913492419</v>
       </c>
     </row>
     <row r="21">
@@ -5992,19 +5992,19 @@
         <v>88749</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>77222</v>
+        <v>77282</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>100924</v>
+        <v>100050</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4926688574761701</v>
+        <v>0.4926688574761703</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4286816807862241</v>
+        <v>0.4290153414088324</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5602589660933326</v>
+        <v>0.5554057720047415</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>153</v>
@@ -6013,19 +6013,19 @@
         <v>96121</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>85853</v>
+        <v>85210</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>106961</v>
+        <v>106341</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5383886843466178</v>
+        <v>0.5383886843466177</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4808787551137358</v>
+        <v>0.4772738211810799</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5991071462359617</v>
+        <v>0.5956359632446916</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>274</v>
@@ -6034,19 +6034,19 @@
         <v>184870</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>170510</v>
+        <v>170087</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>201132</v>
+        <v>200142</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5154264601635793</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4753901060862432</v>
+        <v>0.4742131645904384</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.560767139278152</v>
+        <v>0.558007284265843</v>
       </c>
     </row>
     <row r="22">
@@ -6063,19 +6063,19 @@
         <v>33681</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25830</v>
+        <v>25648</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44641</v>
+        <v>44042</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1869745880375825</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1433882003107575</v>
+        <v>0.1423808112605474</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2478169077976305</v>
+        <v>0.2444912725547289</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -6084,19 +6084,19 @@
         <v>23405</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16867</v>
+        <v>16913</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30807</v>
+        <v>31318</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1310961763487706</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09447233120790413</v>
+        <v>0.09473145561027006</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1725537400266968</v>
+        <v>0.1754197795471623</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -6105,19 +6105,19 @@
         <v>57087</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47019</v>
+        <v>46680</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69082</v>
+        <v>69521</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1591604255819623</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1310914844868541</v>
+        <v>0.1301455390521248</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1926056410522731</v>
+        <v>0.1938296436614888</v>
       </c>
     </row>
     <row r="23">
@@ -6209,19 +6209,19 @@
         <v>19629</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12187</v>
+        <v>12703</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29328</v>
+        <v>28017</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0357119871055905</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02217252549958173</v>
+        <v>0.02311089719884099</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05335868863921793</v>
+        <v>0.05097358476222252</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>29</v>
@@ -6230,19 +6230,19 @@
         <v>17324</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11457</v>
+        <v>11592</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24567</v>
+        <v>24680</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03405041931844046</v>
+        <v>0.03405041931844045</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02251847733932818</v>
+        <v>0.022784203151102</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04828608005828164</v>
+        <v>0.04850813411242681</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>53</v>
@@ -6251,19 +6251,19 @@
         <v>36953</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28239</v>
+        <v>28131</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49147</v>
+        <v>49274</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03491328634787585</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02668074575203783</v>
+        <v>0.0265785848428208</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04643406552279524</v>
+        <v>0.0465539775961076</v>
       </c>
     </row>
     <row r="25">
@@ -6280,19 +6280,19 @@
         <v>135435</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>119867</v>
+        <v>117955</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>154676</v>
+        <v>155544</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2464041297481983</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.218080180831552</v>
+        <v>0.2146015853998658</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2814097381296534</v>
+        <v>0.2829896515352838</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>236</v>
@@ -6301,19 +6301,19 @@
         <v>133678</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>118978</v>
+        <v>118099</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>149815</v>
+        <v>147201</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2627462960698398</v>
+        <v>0.2627462960698397</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2338531253900063</v>
+        <v>0.232125036311866</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2944631414935864</v>
+        <v>0.2893253429626074</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>400</v>
@@ -6322,19 +6322,19 @@
         <v>269113</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>245352</v>
+        <v>246689</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>294396</v>
+        <v>293794</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2542596627723319</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2318097277007438</v>
+        <v>0.2330733921727627</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2781474526824761</v>
+        <v>0.2775785467410583</v>
       </c>
     </row>
     <row r="26">
@@ -6351,19 +6351,19 @@
         <v>273817</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>253221</v>
+        <v>253256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>296821</v>
+        <v>294480</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4981698600301874</v>
+        <v>0.4981698600301875</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4606980066607593</v>
+        <v>0.4607614763387253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5400215761530403</v>
+        <v>0.5357629088454782</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>444</v>
@@ -6372,19 +6372,19 @@
         <v>263528</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>246457</v>
+        <v>247964</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>280859</v>
+        <v>283074</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5179695646391013</v>
+        <v>0.5179695646391014</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4844154164369454</v>
+        <v>0.4873771802950879</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5520330395586714</v>
+        <v>0.556387491579165</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>793</v>
@@ -6393,19 +6393,19 @@
         <v>537345</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>508000</v>
+        <v>507591</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>564150</v>
+        <v>563978</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5076874007504432</v>
+        <v>0.5076874007504433</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4799615356632048</v>
+        <v>0.4795752290981675</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5330122742305722</v>
+        <v>0.5328498000556077</v>
       </c>
     </row>
     <row r="27">
@@ -6422,19 +6422,19 @@
         <v>120765</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>103800</v>
+        <v>102912</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>139814</v>
+        <v>139870</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2197140231160236</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1888495474799408</v>
+        <v>0.1872331797054871</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2543708431467859</v>
+        <v>0.2544721263474464</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>158</v>
@@ -6443,19 +6443,19 @@
         <v>94242</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>81106</v>
+        <v>80288</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>107497</v>
+        <v>105943</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1852337199726184</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1594147162798565</v>
+        <v>0.1578072616941362</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2112862819201771</v>
+        <v>0.2082327289287831</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>307</v>
@@ -6464,19 +6464,19 @@
         <v>215007</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>193349</v>
+        <v>192942</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>237547</v>
+        <v>237897</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2031396501293491</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1826771170360229</v>
+        <v>0.1822927854756531</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2244363149859044</v>
+        <v>0.2247664079826878</v>
       </c>
     </row>
     <row r="28">
